--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_cofiring_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_cofiring_coal.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -446,9 +454,6 @@
     <t>MW</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -583,6 +588,10 @@
   <si>
     <t>energy_chp_ultra_supercritical_cofiring_coal.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -593,7 +602,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -697,11 +706,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1329,7 +1333,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1341,68 +1345,68 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1413,7 +1417,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1431,7 +1435,7 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1526,35 +1530,35 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1789,80 +1793,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>177800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3962400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2020,7 +1959,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2457,45 +2396,45 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>103</v>
@@ -2504,7 +2443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2513,29 +2452,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="77" t="s">
         <v>106</v>
@@ -2544,33 +2483,33 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="77"/>
       <c r="C12" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="77" t="s">
         <v>111</v>
@@ -2579,49 +2518,49 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>119</v>
@@ -2630,46 +2569,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="44.125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="49.75" style="35" customWidth="1"/>
-    <col min="10" max="10" width="4.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="49.7109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="145" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
@@ -2678,7 +2612,7 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="149"/>
       <c r="D3" s="149"/>
@@ -2687,7 +2621,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="149"/>
       <c r="D4" s="149"/>
@@ -2696,7 +2630,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="151"/>
       <c r="C5" s="152"/>
       <c r="D5" s="152"/>
@@ -2705,10 +2639,10 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -2719,7 +2653,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="37"/>
     </row>
-    <row r="8" spans="2:11" s="42" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="96"/>
       <c r="C8" s="15" t="s">
         <v>34</v>
@@ -2740,7 +2674,7 @@
       </c>
       <c r="J8" s="90"/>
     </row>
-    <row r="9" spans="2:11" s="42" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="14"/>
       <c r="D9" s="28"/>
@@ -2751,7 +2685,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="43"/>
     </row>
-    <row r="10" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
         <v>121</v>
@@ -2764,7 +2698,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="43"/>
     </row>
-    <row r="11" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="34" t="s">
         <v>35</v>
@@ -2783,7 +2717,7 @@
       </c>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="34" t="s">
         <v>76</v>
@@ -2802,7 +2736,7 @@
       </c>
       <c r="J12" s="43"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="34" t="s">
         <v>37</v>
@@ -2822,7 +2756,7 @@
       <c r="J13" s="91"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
         <v>38</v>
@@ -2842,7 +2776,7 @@
       <c r="J14" s="91"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="34" t="s">
         <v>40</v>
@@ -2862,7 +2796,7 @@
       <c r="J15" s="91"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="38"/>
       <c r="C16" s="34" t="s">
         <v>11</v>
@@ -2882,7 +2816,7 @@
       <c r="J16" s="91"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
       <c r="C17" s="34" t="s">
         <v>43</v>
@@ -2902,7 +2836,7 @@
       <c r="J17" s="91"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
       <c r="C18" s="34" t="s">
         <v>44</v>
@@ -2922,7 +2856,7 @@
       <c r="J18" s="91"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="38"/>
       <c r="C19" s="34" t="s">
         <v>45</v>
@@ -2944,7 +2878,7 @@
       </c>
       <c r="J19" s="91"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
       <c r="C20" s="34" t="s">
         <v>46</v>
@@ -2965,7 +2899,7 @@
       </c>
       <c r="J20" s="91"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="38"/>
       <c r="C21" s="34" t="s">
         <v>47</v>
@@ -2986,7 +2920,7 @@
       </c>
       <c r="J21" s="91"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="38"/>
       <c r="C22" s="34" t="s">
         <v>60</v>
@@ -3007,7 +2941,7 @@
       </c>
       <c r="J22" s="91"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
       <c r="C23" s="34" t="s">
         <v>48</v>
@@ -3028,7 +2962,7 @@
       </c>
       <c r="J23" s="91"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38"/>
       <c r="C24" s="34" t="s">
         <v>49</v>
@@ -3049,7 +2983,7 @@
       </c>
       <c r="J24" s="91"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
       <c r="C25" s="34" t="s">
         <v>50</v>
@@ -3070,7 +3004,7 @@
       </c>
       <c r="J25" s="91"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
       <c r="C26" s="33"/>
       <c r="D26" s="98"/>
@@ -3081,10 +3015,10 @@
       <c r="I26" s="33"/>
       <c r="J26" s="91"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
       <c r="C27" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="99"/>
@@ -3094,7 +3028,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="91"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
       <c r="C28" s="34" t="s">
         <v>51</v>
@@ -3112,11 +3046,11 @@
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J28" s="91"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="38"/>
       <c r="C29" s="34" t="s">
         <v>52</v>
@@ -3137,7 +3071,7 @@
       </c>
       <c r="J29" s="91"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="38"/>
       <c r="C30" s="34" t="s">
         <v>13</v>
@@ -3158,7 +3092,7 @@
       </c>
       <c r="J30" s="91"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="38"/>
       <c r="C31" s="34" t="s">
         <v>53</v>
@@ -3179,7 +3113,7 @@
       </c>
       <c r="J31" s="91"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="38"/>
       <c r="C32" s="34" t="s">
         <v>54</v>
@@ -3201,7 +3135,7 @@
       </c>
       <c r="J32" s="91"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="38"/>
       <c r="C33" s="34" t="s">
         <v>55</v>
@@ -3223,7 +3157,7 @@
       </c>
       <c r="J33" s="91"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="38"/>
       <c r="C34" s="34" t="s">
         <v>56</v>
@@ -3244,7 +3178,7 @@
       </c>
       <c r="J34" s="91"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="38"/>
       <c r="C35" s="34" t="s">
         <v>59</v>
@@ -3265,7 +3199,7 @@
       </c>
       <c r="J35" s="91"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="38"/>
       <c r="C36" s="34" t="s">
         <v>42</v>
@@ -3284,7 +3218,7 @@
       </c>
       <c r="J36" s="91"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="38"/>
       <c r="C37" s="33"/>
       <c r="D37" s="98"/>
@@ -3295,7 +3229,7 @@
       <c r="I37" s="33"/>
       <c r="J37" s="91"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="38"/>
       <c r="C38" s="14" t="s">
         <v>8</v>
@@ -3308,7 +3242,7 @@
       <c r="I38" s="33"/>
       <c r="J38" s="91"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="38"/>
       <c r="C39" s="34" t="s">
         <v>41</v>
@@ -3330,7 +3264,7 @@
       </c>
       <c r="J39" s="91"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38"/>
       <c r="C40" s="34" t="s">
         <v>57</v>
@@ -3352,7 +3286,7 @@
       </c>
       <c r="J40" s="91"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="38"/>
       <c r="C41" s="34" t="s">
         <v>58</v>
@@ -3370,11 +3304,11 @@
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J41" s="91"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="38"/>
       <c r="C42" s="34" t="s">
         <v>39</v>
@@ -3393,7 +3327,7 @@
       </c>
       <c r="J42" s="91"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="38"/>
       <c r="C43" s="46" t="s">
         <v>78</v>
@@ -3410,7 +3344,7 @@
       </c>
       <c r="J43" s="91"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="38"/>
       <c r="C44" s="46" t="s">
         <v>79</v>
@@ -3427,7 +3361,7 @@
       </c>
       <c r="J44" s="91"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="38"/>
       <c r="C45" s="46" t="s">
         <v>81</v>
@@ -3444,7 +3378,7 @@
       </c>
       <c r="J45" s="91"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="38"/>
       <c r="C46" s="46" t="s">
         <v>82</v>
@@ -3461,7 +3395,7 @@
       </c>
       <c r="J46" s="91"/>
     </row>
-    <row r="47" spans="2:10" ht="16" thickBot="1">
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="38"/>
       <c r="C47" s="46" t="s">
         <v>80</v>
@@ -3478,7 +3412,7 @@
       </c>
       <c r="J47" s="91"/>
     </row>
-    <row r="48" spans="2:10" ht="16" thickBot="1">
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="38"/>
       <c r="C48" s="46" t="s">
         <v>83</v>
@@ -3495,7 +3429,7 @@
       </c>
       <c r="J48" s="91"/>
     </row>
-    <row r="49" spans="2:10" ht="16" thickBot="1">
+    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="38"/>
       <c r="C49" s="73" t="s">
         <v>95</v>
@@ -3512,7 +3446,7 @@
       </c>
       <c r="J49" s="91"/>
     </row>
-    <row r="50" spans="2:10" ht="16" thickBot="1">
+    <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="38"/>
       <c r="C50" s="73" t="s">
         <v>96</v>
@@ -3529,7 +3463,7 @@
       </c>
       <c r="J50" s="91"/>
     </row>
-    <row r="51" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="51" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="39"/>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
@@ -3546,43 +3480,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>177800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3962400</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3597,31 +3494,31 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="100" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="100" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="100" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="100" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="100" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="100" customWidth="1"/>
-    <col min="7" max="7" width="2.75" style="100" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="100" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="100" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="103" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="103" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="103" customWidth="1"/>
-    <col min="13" max="13" width="2.125" style="103" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="103" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="100" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="100" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="100" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="100" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="100" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="100" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="100" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="100" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="100" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="103" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="103" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="103" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="103" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="103" customWidth="1"/>
     <col min="15" max="15" width="3" style="100" customWidth="1"/>
     <col min="16" max="16" width="10" style="103" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="103" customWidth="1"/>
-    <col min="18" max="18" width="81.75" style="100" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="100"/>
+    <col min="17" max="17" width="2.7109375" style="103" customWidth="1"/>
+    <col min="18" max="18" width="81.7109375" style="100" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="104"/>
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
@@ -3640,7 +3537,7 @@
       <c r="Q2" s="106"/>
       <c r="R2" s="105"/>
     </row>
-    <row r="3" spans="2:18" s="21" customFormat="1">
+    <row r="3" spans="2:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="92" t="s">
         <v>126</v>
@@ -3664,7 +3561,7 @@
       </c>
       <c r="M3" s="94"/>
       <c r="N3" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O3" s="92"/>
       <c r="P3" s="94" t="s">
@@ -3672,10 +3569,10 @@
       </c>
       <c r="Q3" s="94"/>
       <c r="R3" s="92" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="107"/>
       <c r="C4" s="108"/>
       <c r="D4" s="108"/>
@@ -3694,7 +3591,7 @@
       <c r="Q4" s="93"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="107"/>
       <c r="C5" s="29" t="s">
         <v>121</v>
@@ -3715,7 +3612,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="101"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="107"/>
       <c r="C6" s="110" t="s">
         <v>31</v>
@@ -3739,7 +3636,7 @@
       <c r="O6" s="109"/>
       <c r="R6" s="101"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
       <c r="D7" s="108"/>
@@ -3757,7 +3654,7 @@
       <c r="P7" s="117"/>
       <c r="R7" s="101"/>
     </row>
-    <row r="8" spans="2:18" ht="16" thickBot="1">
+    <row r="8" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="107"/>
       <c r="C8" s="29" t="s">
         <v>8</v>
@@ -3776,10 +3673,10 @@
       <c r="O8" s="109"/>
       <c r="P8" s="117"/>
       <c r="R8" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="16" thickBot="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="107"/>
       <c r="C9" s="118" t="s">
         <v>1</v>
@@ -3808,7 +3705,7 @@
       <c r="Q9" s="109"/>
       <c r="R9" s="101"/>
     </row>
-    <row r="10" spans="2:18" ht="16" thickBot="1">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="107"/>
       <c r="C10" s="121" t="s">
         <v>6</v>
@@ -3837,7 +3734,7 @@
       <c r="Q10" s="109"/>
       <c r="R10" s="101"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="107"/>
       <c r="C11" s="123" t="s">
         <v>125</v>
@@ -3867,7 +3764,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="107"/>
       <c r="C12" s="128"/>
       <c r="D12" s="128"/>
@@ -3886,7 +3783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="16" thickBot="1">
+    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="107"/>
       <c r="C13" s="13" t="s">
         <v>122</v>
@@ -3907,7 +3804,7 @@
       <c r="Q13" s="117"/>
       <c r="R13" s="101"/>
     </row>
-    <row r="14" spans="2:18" ht="16" thickBot="1">
+    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="107"/>
       <c r="C14" s="110" t="s">
         <v>124</v>
@@ -3932,10 +3829,10 @@
       <c r="P14" s="117"/>
       <c r="Q14" s="117"/>
       <c r="R14" s="101" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="16" thickBot="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="107"/>
       <c r="C15" s="131" t="s">
         <v>9</v>
@@ -3943,7 +3840,7 @@
       <c r="D15" s="131"/>
       <c r="E15" s="131"/>
       <c r="F15" s="111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="112"/>
       <c r="H15" s="119">
@@ -3965,13 +3862,13 @@
       <c r="P15" s="117"/>
       <c r="Q15" s="117"/>
       <c r="R15" s="101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="16" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="107"/>
       <c r="C16" s="118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -3993,18 +3890,18 @@
       <c r="P16" s="120"/>
       <c r="Q16" s="120"/>
       <c r="R16" s="101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="16" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="107"/>
       <c r="C17" s="118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="134">
@@ -4020,10 +3917,10 @@
       <c r="P17" s="120"/>
       <c r="Q17" s="120"/>
       <c r="R17" s="102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="107"/>
       <c r="C18" s="118" t="s">
         <v>68</v>
@@ -4051,7 +3948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="16" thickBot="1">
+    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="107"/>
       <c r="C19" s="118" t="s">
         <v>68</v>
@@ -4077,7 +3974,7 @@
       <c r="Q19" s="120"/>
       <c r="R19" s="101"/>
     </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="107"/>
       <c r="C20" s="118" t="s">
         <v>68</v>
@@ -4102,7 +3999,7 @@
       <c r="Q20" s="120"/>
       <c r="R20" s="101"/>
     </row>
-    <row r="21" spans="2:18" ht="16" thickBot="1">
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="107"/>
       <c r="C21" s="118" t="s">
         <v>123</v>
@@ -4127,15 +4024,15 @@
       <c r="Q21" s="117"/>
       <c r="R21" s="101"/>
     </row>
-    <row r="22" spans="2:18" ht="16" thickBot="1">
+    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="107"/>
       <c r="C22" s="118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
       <c r="F22" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22" s="129"/>
       <c r="H22" s="137">
@@ -4170,11 +4067,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4189,21 +4081,21 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="47" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="47" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="32.375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="77.125" style="47" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="47"/>
+    <col min="1" max="2" width="4.5703125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="47" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="77.140625" style="47" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -4215,7 +4107,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="52"/>
       <c r="C3" s="53" t="s">
         <v>23</v>
@@ -4229,7 +4121,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="52"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -4241,7 +4133,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
         <v>32</v>
@@ -4257,19 +4149,19 @@
         <v>33</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="58" t="s">
         <v>75</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K5" s="58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="52"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -4281,7 +4173,7 @@
       <c r="J6" s="54"/>
       <c r="K6" s="53"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="52"/>
       <c r="C7" s="69"/>
       <c r="D7" s="60"/>
@@ -4289,7 +4181,7 @@
         <v>120</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="56" t="s">
         <v>89</v>
@@ -4299,13 +4191,13 @@
       </c>
       <c r="I7" s="56"/>
       <c r="J7" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="71" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
       <c r="C8" s="72" t="s">
         <v>91</v>
@@ -4319,7 +4211,7 @@
       <c r="J8" s="56"/>
       <c r="K8" s="55"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
       <c r="C9" s="69"/>
       <c r="D9" s="60"/>
@@ -4331,31 +4223,31 @@
       <c r="J9" s="65"/>
       <c r="K9" s="66"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="52"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>88</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="52"/>
       <c r="C11" s="72" t="s">
         <v>91</v>
@@ -4369,14 +4261,14 @@
       <c r="J11" s="65"/>
       <c r="K11" s="60"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="52"/>
       <c r="C12" s="67" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="55" t="s">
         <v>88</v>
@@ -4389,13 +4281,13 @@
       </c>
       <c r="I12" s="55"/>
       <c r="J12" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K12" s="66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="52"/>
       <c r="C13" s="62"/>
       <c r="D13" s="60"/>
@@ -4407,15 +4299,15 @@
       <c r="J13" s="56"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="52"/>
       <c r="C14" s="62"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="56">
         <v>2012</v>
@@ -4425,13 +4317,13 @@
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K14" s="60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="52"/>
       <c r="C15" s="61" t="s">
         <v>6</v>
@@ -4445,7 +4337,7 @@
       <c r="J15" s="56"/>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="52"/>
       <c r="C16" s="61"/>
       <c r="D16" s="60"/>
@@ -4457,7 +4349,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="60"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="52"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -4479,7 +4371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="52"/>
       <c r="C18" s="69" t="s">
         <v>101</v>
@@ -4493,7 +4385,7 @@
       <c r="J18" s="56"/>
       <c r="K18" s="60"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="52"/>
       <c r="C19" s="69" t="s">
         <v>102</v>
@@ -4507,7 +4399,7 @@
       <c r="J19" s="70"/>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="52"/>
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
@@ -4519,7 +4411,7 @@
       <c r="J20" s="70"/>
       <c r="K20" s="60"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="52"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
@@ -4539,7 +4431,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="52"/>
       <c r="C22" s="69" t="s">
         <v>77</v>
@@ -4566,11 +4458,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G10:H10 H17 H14" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4582,19 +4469,19 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="100" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="100" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="100"/>
-    <col min="4" max="4" width="12.625" style="100" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="100"/>
-    <col min="6" max="6" width="8.625" style="100" customWidth="1"/>
-    <col min="7" max="16384" width="10.625" style="100"/>
+    <col min="2" max="2" width="5.7109375" style="100" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="100"/>
+    <col min="4" max="4" width="12.5703125" style="100" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="100"/>
+    <col min="6" max="6" width="8.5703125" style="100" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13" s="21" customFormat="1">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="144"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4608,13 +4495,13 @@
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="2:13" s="21" customFormat="1">
+    <row r="3" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="96"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4626,7 +4513,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="107"/>
       <c r="C4" s="129"/>
       <c r="D4" s="129"/>
@@ -4640,7 +4527,7 @@
       <c r="L4" s="129"/>
       <c r="M4" s="129"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="107"/>
       <c r="C5" s="129" t="s">
         <v>120</v>
@@ -4656,10 +4543,10 @@
       <c r="L5" s="129"/>
       <c r="M5" s="129"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="107"/>
       <c r="C6" s="129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="129"/>
       <c r="E6" s="129"/>
@@ -4672,7 +4559,7 @@
       <c r="L6" s="129"/>
       <c r="M6" s="129"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="107"/>
       <c r="C7" s="129"/>
       <c r="D7" s="129"/>
@@ -4686,7 +4573,7 @@
       <c r="L7" s="129"/>
       <c r="M7" s="129"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="107"/>
       <c r="C8" s="129"/>
       <c r="D8" s="129"/>
@@ -4700,7 +4587,7 @@
       <c r="L8" s="129"/>
       <c r="M8" s="129"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="107"/>
       <c r="C9" s="129"/>
       <c r="D9" s="129"/>
@@ -4714,7 +4601,7 @@
       <c r="L9" s="129"/>
       <c r="M9" s="129"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="107"/>
       <c r="C10" s="129"/>
       <c r="D10" s="129"/>
@@ -4728,7 +4615,7 @@
       <c r="L10" s="129"/>
       <c r="M10" s="129"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="107"/>
       <c r="C11" s="129"/>
       <c r="D11" s="129"/>
@@ -4742,7 +4629,7 @@
       <c r="L11" s="129"/>
       <c r="M11" s="129"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="107"/>
       <c r="C12" s="129"/>
       <c r="D12" s="129"/>
@@ -4756,7 +4643,7 @@
       <c r="L12" s="129"/>
       <c r="M12" s="129"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="107"/>
       <c r="C13" s="129"/>
       <c r="D13" s="129"/>
@@ -4770,15 +4657,15 @@
       <c r="L13" s="129"/>
       <c r="M13" s="129"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="107"/>
       <c r="C14" s="129"/>
       <c r="D14" s="129"/>
       <c r="E14" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="129" t="s">
         <v>135</v>
-      </c>
-      <c r="F14" s="129" t="s">
-        <v>136</v>
       </c>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
@@ -4788,18 +4675,18 @@
       <c r="L14" s="129"/>
       <c r="M14" s="129"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="107"/>
       <c r="C15" s="129"/>
       <c r="D15" s="129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="129">
         <f>AVERAGE(430,500)</f>
         <v>465</v>
       </c>
       <c r="F15" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="129"/>
       <c r="H15" s="129"/>
@@ -4809,7 +4696,7 @@
       <c r="L15" s="129"/>
       <c r="M15" s="129"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="107"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -4817,7 +4704,7 @@
         <v>348.17</v>
       </c>
       <c r="F16" s="129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="129"/>
       <c r="H16" s="129"/>
@@ -4827,7 +4714,7 @@
       <c r="L16" s="129"/>
       <c r="M16" s="129"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="107"/>
       <c r="C17" s="129"/>
       <c r="D17" s="129"/>
@@ -4841,7 +4728,7 @@
       <c r="L17" s="129"/>
       <c r="M17" s="129"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="107"/>
       <c r="C18" s="129"/>
       <c r="D18" s="129"/>
@@ -4855,7 +4742,7 @@
       <c r="L18" s="129"/>
       <c r="M18" s="129"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="107"/>
       <c r="C19" s="129"/>
       <c r="D19" s="129"/>
@@ -4869,7 +4756,7 @@
       <c r="L19" s="129"/>
       <c r="M19" s="129"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="107"/>
       <c r="C20" s="129"/>
       <c r="D20" s="129"/>
@@ -4883,7 +4770,7 @@
       <c r="L20" s="129"/>
       <c r="M20" s="129"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="107"/>
       <c r="C21" s="129"/>
       <c r="D21" s="129"/>
@@ -4897,7 +4784,7 @@
       <c r="L21" s="129"/>
       <c r="M21" s="129"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="107"/>
       <c r="C22" s="129"/>
       <c r="D22" s="129"/>
@@ -4911,7 +4798,7 @@
       <c r="L22" s="129"/>
       <c r="M22" s="129"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="107"/>
       <c r="C23" s="129"/>
       <c r="D23" s="129"/>
@@ -4925,7 +4812,7 @@
       <c r="L23" s="129"/>
       <c r="M23" s="129"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="107"/>
       <c r="C24" s="129"/>
       <c r="D24" s="129"/>
@@ -4939,10 +4826,10 @@
       <c r="L24" s="129"/>
       <c r="M24" s="129"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="107"/>
       <c r="C25" s="129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="129"/>
       <c r="E25" s="129"/>
@@ -4955,10 +4842,10 @@
       <c r="L25" s="129"/>
       <c r="M25" s="129"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="107"/>
       <c r="C26" s="129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="129"/>
       <c r="E26" s="129"/>
@@ -4971,7 +4858,7 @@
       <c r="L26" s="129"/>
       <c r="M26" s="129"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="107"/>
       <c r="C27" s="129"/>
       <c r="D27" s="129"/>
@@ -4985,15 +4872,15 @@
       <c r="L27" s="129"/>
       <c r="M27" s="129"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="107"/>
       <c r="C28" s="129"/>
       <c r="D28" s="129"/>
       <c r="E28" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G28" s="129"/>
       <c r="H28" s="129"/>
@@ -5003,7 +4890,7 @@
       <c r="L28" s="129"/>
       <c r="M28" s="129"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="107"/>
       <c r="C29" s="129"/>
       <c r="D29" s="129"/>
@@ -5011,7 +4898,7 @@
         <v>450</v>
       </c>
       <c r="F29" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="129"/>
       <c r="H29" s="129"/>
@@ -5021,7 +4908,7 @@
       <c r="L29" s="129"/>
       <c r="M29" s="129"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="107"/>
       <c r="C30" s="129"/>
       <c r="D30" s="129"/>
@@ -5029,7 +4916,7 @@
         <v>349.6</v>
       </c>
       <c r="F30" s="129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="129"/>
       <c r="H30" s="129"/>
@@ -5039,7 +4926,7 @@
       <c r="L30" s="129"/>
       <c r="M30" s="129"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="107"/>
       <c r="C31" s="129"/>
       <c r="D31" s="129"/>
@@ -5053,7 +4940,7 @@
       <c r="L31" s="129"/>
       <c r="M31" s="129"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="107"/>
       <c r="C32" s="129"/>
       <c r="D32" s="129"/>
@@ -5067,7 +4954,7 @@
       <c r="L32" s="129"/>
       <c r="M32" s="129"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="107"/>
       <c r="C33" s="129"/>
       <c r="D33" s="129"/>
@@ -5081,7 +4968,7 @@
       <c r="L33" s="129"/>
       <c r="M33" s="129"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="107"/>
       <c r="C34" s="129"/>
       <c r="D34" s="129"/>
@@ -5095,7 +4982,7 @@
       <c r="L34" s="129"/>
       <c r="M34" s="129"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="107"/>
       <c r="C35" s="129"/>
       <c r="D35" s="129"/>
@@ -5109,7 +4996,7 @@
       <c r="L35" s="129"/>
       <c r="M35" s="129"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="107"/>
       <c r="C36" s="129"/>
       <c r="D36" s="129"/>
@@ -5123,7 +5010,7 @@
       <c r="L36" s="129"/>
       <c r="M36" s="129"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="107"/>
       <c r="C37" s="129"/>
       <c r="D37" s="129"/>
@@ -5137,7 +5024,7 @@
       <c r="L37" s="129"/>
       <c r="M37" s="129"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="107"/>
       <c r="C38" s="129"/>
       <c r="D38" s="129"/>
@@ -5151,7 +5038,7 @@
       <c r="L38" s="129"/>
       <c r="M38" s="129"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="107"/>
       <c r="C39" s="129"/>
       <c r="D39" s="129"/>
@@ -5165,7 +5052,7 @@
       <c r="L39" s="129"/>
       <c r="M39" s="129"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="107"/>
       <c r="C40" s="129"/>
       <c r="D40" s="129"/>
@@ -5179,10 +5066,10 @@
       <c r="L40" s="129"/>
       <c r="M40" s="129"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="107"/>
       <c r="C41" s="129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" s="129"/>
       <c r="E41" s="129"/>
@@ -5195,10 +5082,10 @@
       <c r="L41" s="129"/>
       <c r="M41" s="129"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="107"/>
       <c r="C42" s="129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="129"/>
       <c r="E42" s="129"/>
@@ -5211,7 +5098,7 @@
       <c r="L42" s="129"/>
       <c r="M42" s="129"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="107"/>
       <c r="C43" s="129"/>
       <c r="D43" s="129"/>
@@ -5225,7 +5112,7 @@
       <c r="L43" s="129"/>
       <c r="M43" s="129"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="107"/>
       <c r="C44" s="129"/>
       <c r="D44" s="129"/>
@@ -5239,7 +5126,7 @@
       <c r="L44" s="129"/>
       <c r="M44" s="129"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="107"/>
       <c r="C45" s="129"/>
       <c r="D45" s="129"/>
@@ -5253,7 +5140,7 @@
       <c r="L45" s="129"/>
       <c r="M45" s="129"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="107"/>
       <c r="C46" s="129"/>
       <c r="D46" s="129"/>
@@ -5267,7 +5154,7 @@
       <c r="L46" s="129"/>
       <c r="M46" s="129"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="107"/>
       <c r="C47" s="129"/>
       <c r="D47" s="129"/>
@@ -5281,7 +5168,7 @@
       <c r="L47" s="129"/>
       <c r="M47" s="129"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="107"/>
       <c r="C48" s="129"/>
       <c r="D48" s="129"/>
@@ -5295,7 +5182,7 @@
       <c r="L48" s="129"/>
       <c r="M48" s="129"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="107"/>
       <c r="C49" s="129"/>
       <c r="D49" s="129"/>
@@ -5309,7 +5196,7 @@
       <c r="L49" s="129"/>
       <c r="M49" s="129"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="107"/>
       <c r="C50" s="129"/>
       <c r="D50" s="129"/>
@@ -5323,7 +5210,7 @@
       <c r="L50" s="129"/>
       <c r="M50" s="129"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="107"/>
       <c r="C51" s="129"/>
       <c r="D51" s="129"/>
@@ -5331,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G51" s="129"/>
       <c r="H51" s="129"/>
@@ -5341,7 +5228,7 @@
       <c r="L51" s="129"/>
       <c r="M51" s="129"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="107"/>
       <c r="C52" s="129"/>
       <c r="D52" s="129"/>
@@ -5355,7 +5242,7 @@
       <c r="L52" s="129"/>
       <c r="M52" s="129"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="107"/>
       <c r="C53" s="129"/>
       <c r="D53" s="129"/>
@@ -5369,7 +5256,7 @@
       <c r="L53" s="129"/>
       <c r="M53" s="129"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="107"/>
       <c r="C54" s="129"/>
       <c r="D54" s="129"/>
@@ -5383,7 +5270,7 @@
       <c r="L54" s="129"/>
       <c r="M54" s="129"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="107"/>
       <c r="C55" s="129"/>
       <c r="D55" s="129"/>
@@ -5397,7 +5284,7 @@
       <c r="L55" s="129"/>
       <c r="M55" s="129"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="107"/>
       <c r="C56" s="129"/>
       <c r="D56" s="129"/>
@@ -5411,10 +5298,10 @@
       <c r="L56" s="129"/>
       <c r="M56" s="129"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="107"/>
       <c r="C57" s="129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" s="129"/>
       <c r="E57" s="129"/>
@@ -5427,10 +5314,10 @@
       <c r="L57" s="129"/>
       <c r="M57" s="129"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="107"/>
       <c r="C58" s="129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="129"/>
       <c r="E58" s="129"/>
@@ -5443,7 +5330,7 @@
       <c r="L58" s="129"/>
       <c r="M58" s="129"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="107"/>
       <c r="C59" s="129"/>
       <c r="D59" s="129"/>
@@ -5457,7 +5344,7 @@
       <c r="L59" s="129"/>
       <c r="M59" s="129"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="107"/>
       <c r="C60" s="129"/>
       <c r="D60" s="129"/>
@@ -5471,7 +5358,7 @@
       <c r="L60" s="129"/>
       <c r="M60" s="129"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="107"/>
       <c r="C61" s="129"/>
       <c r="D61" s="129"/>
@@ -5485,7 +5372,7 @@
       <c r="L61" s="129"/>
       <c r="M61" s="129"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="107"/>
       <c r="C62" s="129"/>
       <c r="D62" s="129"/>
@@ -5499,17 +5386,17 @@
       <c r="L62" s="129"/>
       <c r="M62" s="129"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="107"/>
       <c r="C63" s="129"/>
       <c r="D63" s="129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E63" s="129">
         <v>40</v>
       </c>
       <c r="F63" s="129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G63" s="129"/>
       <c r="H63" s="129"/>
@@ -5519,7 +5406,7 @@
       <c r="L63" s="129"/>
       <c r="M63" s="129"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="107"/>
       <c r="C64" s="129"/>
       <c r="D64" s="129"/>
@@ -5533,7 +5420,7 @@
       <c r="L64" s="129"/>
       <c r="M64" s="129"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="107"/>
       <c r="C65" s="129"/>
       <c r="D65" s="129"/>
@@ -5547,7 +5434,7 @@
       <c r="L65" s="129"/>
       <c r="M65" s="129"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="107"/>
       <c r="C66" s="129"/>
       <c r="D66" s="129"/>
@@ -5561,7 +5448,7 @@
       <c r="L66" s="129"/>
       <c r="M66" s="129"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="107"/>
       <c r="C67" s="129"/>
       <c r="D67" s="129"/>
@@ -5575,7 +5462,7 @@
       <c r="L67" s="129"/>
       <c r="M67" s="129"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="107"/>
       <c r="C68" s="129"/>
       <c r="D68" s="129"/>
@@ -5589,7 +5476,7 @@
       <c r="L68" s="129"/>
       <c r="M68" s="129"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="107"/>
       <c r="C69" s="129"/>
       <c r="D69" s="129"/>
@@ -5603,7 +5490,7 @@
       <c r="L69" s="129"/>
       <c r="M69" s="129"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="107"/>
       <c r="C70" s="129"/>
       <c r="D70" s="129"/>
@@ -5617,7 +5504,7 @@
       <c r="L70" s="129"/>
       <c r="M70" s="129"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="107"/>
       <c r="C71" s="129"/>
       <c r="D71" s="129"/>
@@ -5631,7 +5518,7 @@
       <c r="L71" s="129"/>
       <c r="M71" s="129"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="107"/>
       <c r="C72" s="129"/>
       <c r="D72" s="129"/>
@@ -5645,7 +5532,7 @@
       <c r="L72" s="129"/>
       <c r="M72" s="129"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="107"/>
       <c r="C73" s="129"/>
       <c r="D73" s="129"/>
@@ -5663,10 +5550,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_cofiring_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_cofiring_coal.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF1D422-5FE9-2044-9737-1E7F73383C3A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACD68E4-52F2-804D-891C-DC0781637E68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -341,9 +347,6 @@
     </r>
   </si>
   <si>
-    <t>input.torrified_biomass_pellets</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Fixed operational and maintenance costs</t>
   </si>
   <si>
@@ -562,6 +565,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>input.torrefied_biomass_pellets</t>
   </si>
 </sst>
 </file>
@@ -655,6 +661,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,6 +669,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,6 +677,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,6 +685,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,6 +693,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,17 +701,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,6 +728,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1255,7 +1270,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1530,6 +1545,7 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="227">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2427,16 +2443,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2461,7 +2477,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="74"/>
     </row>
@@ -2473,31 +2489,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="77" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="75"/>
       <c r="C12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="75"/>
       <c r="C13" s="78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2508,58 +2524,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="79" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="75"/>
       <c r="C17" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="75"/>
       <c r="C18" s="81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="75"/>
       <c r="C19" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="83"/>
       <c r="C20" s="84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="83"/>
       <c r="C21" s="85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="83"/>
       <c r="C22" s="86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="83"/>
       <c r="C23" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2575,8 +2591,8 @@
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2599,7 +2615,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
@@ -2684,7 +2700,7 @@
     <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="14"/>
@@ -2858,7 +2874,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="44">
         <f>'Research data'!H6</f>
@@ -2880,7 +2896,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="43">
         <v>0</v>
@@ -2909,7 +2925,7 @@
     <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="96"/>
       <c r="E22" s="97"/>
@@ -2937,7 +2953,7 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J23" s="89"/>
     </row>
@@ -3195,7 +3211,7 @@
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J36" s="89"/>
     </row>
@@ -3339,8 +3355,8 @@
     </row>
     <row r="45" spans="2:10" ht="17" thickBot="1">
       <c r="B45" s="37"/>
-      <c r="C45" s="72" t="s">
-        <v>90</v>
+      <c r="C45" s="152" t="s">
+        <v>159</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="93">
@@ -3431,7 +3447,7 @@
     <row r="3" spans="2:18" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3440,7 +3456,7 @@
       </c>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="92" t="s">
@@ -3448,11 +3464,11 @@
       </c>
       <c r="K3" s="92"/>
       <c r="L3" s="92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="92"/>
       <c r="N3" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O3" s="90"/>
       <c r="P3" s="92" t="s">
@@ -3460,7 +3476,7 @@
       </c>
       <c r="Q3" s="92"/>
       <c r="R3" s="90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:18">
@@ -3485,7 +3501,7 @@
     <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="105"/>
       <c r="C5" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3511,7 +3527,7 @@
       <c r="D6" s="108"/>
       <c r="E6" s="108"/>
       <c r="F6" s="109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="110"/>
       <c r="H6" s="111">
@@ -3564,7 +3580,7 @@
       <c r="O8" s="107"/>
       <c r="P8" s="115"/>
       <c r="R8" s="99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="17" thickBot="1">
@@ -3628,7 +3644,7 @@
     <row r="11" spans="2:18" ht="17" thickBot="1">
       <c r="B11" s="105"/>
       <c r="C11" s="121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
@@ -3677,7 +3693,7 @@
     <row r="13" spans="2:18" ht="17" thickBot="1">
       <c r="B13" s="105"/>
       <c r="C13" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3698,7 +3714,7 @@
     <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="105"/>
       <c r="C14" s="108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3720,7 +3736,7 @@
       <c r="P14" s="115"/>
       <c r="Q14" s="115"/>
       <c r="R14" s="99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="17" thickBot="1">
@@ -3731,7 +3747,7 @@
       <c r="D15" s="129"/>
       <c r="E15" s="129"/>
       <c r="F15" s="109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="110"/>
       <c r="H15" s="117">
@@ -3753,13 +3769,13 @@
       <c r="P15" s="115"/>
       <c r="Q15" s="115"/>
       <c r="R15" s="99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="105"/>
       <c r="C16" s="116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -3781,18 +3797,18 @@
       <c r="P16" s="118"/>
       <c r="Q16" s="118"/>
       <c r="R16" s="99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="105"/>
       <c r="C17" s="116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="106"/>
       <c r="H17" s="132">
@@ -3808,7 +3824,7 @@
       <c r="P17" s="118"/>
       <c r="Q17" s="118"/>
       <c r="R17" s="100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" thickBot="1">
@@ -3893,7 +3909,7 @@
     <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="105"/>
       <c r="C21" s="116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
@@ -3918,12 +3934,12 @@
     <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="105"/>
       <c r="C22" s="116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
       <c r="F22" s="99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="127"/>
       <c r="H22" s="135">
@@ -4040,13 +4056,13 @@
         <v>33</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>17</v>
@@ -4069,10 +4085,10 @@
       <c r="C7" s="68"/>
       <c r="D7" s="59"/>
       <c r="E7" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>83</v>
@@ -4082,7 +4098,7 @@
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K7" s="70" t="s">
         <v>84</v>
@@ -4114,28 +4130,28 @@
       <c r="J9" s="64"/>
       <c r="K9" s="65"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="34">
       <c r="B10" s="51"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67"/>
       <c r="E10" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="62" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K10" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -4159,7 +4175,7 @@
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="54" t="s">
         <v>82</v>
@@ -4172,7 +4188,7 @@
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12" s="65" t="s">
         <v>67</v>
@@ -4195,10 +4211,10 @@
       <c r="C14" s="61"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="55">
         <v>2012</v>
@@ -4208,10 +4224,10 @@
       </c>
       <c r="I14" s="54"/>
       <c r="J14" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K14" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4265,7 +4281,7 @@
     <row r="18" spans="2:11">
       <c r="B18" s="51"/>
       <c r="C18" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -4279,7 +4295,7 @@
     <row r="19" spans="2:11">
       <c r="B19" s="51"/>
       <c r="C19" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="54"/>
@@ -4392,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4421,7 +4437,7 @@
     <row r="5" spans="2:13">
       <c r="B5" s="105"/>
       <c r="C5" s="127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="127"/>
       <c r="E5" s="127"/>
@@ -4437,7 +4453,7 @@
     <row r="6" spans="2:13">
       <c r="B6" s="105"/>
       <c r="C6" s="127" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="127"/>
       <c r="E6" s="127"/>
@@ -4553,10 +4569,10 @@
       <c r="C14" s="127"/>
       <c r="D14" s="127"/>
       <c r="E14" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="127" t="s">
         <v>124</v>
-      </c>
-      <c r="F14" s="127" t="s">
-        <v>125</v>
       </c>
       <c r="G14" s="127"/>
       <c r="H14" s="127"/>
@@ -4570,14 +4586,14 @@
       <c r="B15" s="105"/>
       <c r="C15" s="127"/>
       <c r="D15" s="127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="127">
         <f>AVERAGE(430,500)</f>
         <v>465</v>
       </c>
       <c r="F15" s="127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="127"/>
       <c r="H15" s="127"/>
@@ -4595,7 +4611,7 @@
         <v>348.17</v>
       </c>
       <c r="F16" s="127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="127"/>
       <c r="H16" s="127"/>
@@ -4720,7 +4736,7 @@
     <row r="25" spans="2:13">
       <c r="B25" s="105"/>
       <c r="C25" s="127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="127"/>
       <c r="E25" s="127"/>
@@ -4736,7 +4752,7 @@
     <row r="26" spans="2:13">
       <c r="B26" s="105"/>
       <c r="C26" s="127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="127"/>
       <c r="E26" s="127"/>
@@ -4768,10 +4784,10 @@
       <c r="C28" s="127"/>
       <c r="D28" s="127"/>
       <c r="E28" s="127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="127"/>
       <c r="H28" s="127"/>
@@ -4789,7 +4805,7 @@
         <v>450</v>
       </c>
       <c r="F29" s="127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G29" s="127"/>
       <c r="H29" s="127"/>
@@ -4807,7 +4823,7 @@
         <v>349.6</v>
       </c>
       <c r="F30" s="127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="127"/>
       <c r="H30" s="127"/>
@@ -4960,7 +4976,7 @@
     <row r="41" spans="2:13">
       <c r="B41" s="105"/>
       <c r="C41" s="127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="127"/>
       <c r="E41" s="127"/>
@@ -4976,7 +4992,7 @@
     <row r="42" spans="2:13">
       <c r="B42" s="105"/>
       <c r="C42" s="127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="127"/>
       <c r="E42" s="127"/>
@@ -5109,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G51" s="127"/>
       <c r="H51" s="127"/>
@@ -5192,7 +5208,7 @@
     <row r="57" spans="2:13">
       <c r="B57" s="105"/>
       <c r="C57" s="127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D57" s="127"/>
       <c r="E57" s="127"/>
@@ -5208,7 +5224,7 @@
     <row r="58" spans="2:13">
       <c r="B58" s="105"/>
       <c r="C58" s="127" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="127"/>
       <c r="E58" s="127"/>
@@ -5281,13 +5297,13 @@
       <c r="B63" s="105"/>
       <c r="C63" s="127"/>
       <c r="D63" s="127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="127">
         <v>40</v>
       </c>
       <c r="F63" s="127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G63" s="127"/>
       <c r="H63" s="127"/>

--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_cofiring_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_cofiring_coal.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACD68E4-52F2-804D-891C-DC0781637E68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E79613B-3543-1F47-BAF8-584562685C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
   <si>
     <t>Source</t>
   </si>
@@ -569,6 +569,9 @@
   <si>
     <t>input.torrefied_biomass_pellets</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -579,12 +582,19 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1040,512 +1050,513 @@
   </borders>
   <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="227">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2412,12 +2423,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.83203125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2591,62 +2602,62 @@
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="49.6640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="49.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
       <c r="D1" s="32"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="152"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -3094,15 +3105,15 @@
         <v>3</v>
       </c>
       <c r="E30" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
-        <v>58</v>
+      <c r="I30" s="153" t="s">
+        <v>160</v>
       </c>
       <c r="J30" s="89"/>
     </row>
@@ -3355,7 +3366,7 @@
     </row>
     <row r="45" spans="2:10" ht="17" thickBot="1">
       <c r="B45" s="37"/>
-      <c r="C45" s="152" t="s">
+      <c r="C45" s="143" t="s">
         <v>159</v>
       </c>
       <c r="D45" s="19"/>
@@ -3401,27 +3412,27 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="98" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="98" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="98" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="98" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="98" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="98" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="98" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="98" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="101" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="101" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="101" customWidth="1"/>
-    <col min="13" max="13" width="2.1640625" style="101" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="101" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="98" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="98" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="98" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="98" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="98" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="98" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="98" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="98" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="101" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="101" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="101" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="101" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="101" customWidth="1"/>
     <col min="15" max="15" width="3" style="98" customWidth="1"/>
     <col min="16" max="16" width="10" style="101" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="101" customWidth="1"/>
-    <col min="18" max="18" width="81.6640625" style="98" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="98"/>
+    <col min="17" max="17" width="2.7109375" style="101" customWidth="1"/>
+    <col min="18" max="18" width="81.7109375" style="98" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -3988,17 +3999,17 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="4.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="32.5" style="47" customWidth="1"/>
-    <col min="11" max="11" width="77.1640625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="46"/>
+    <col min="1" max="2" width="4.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="77.140625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4376,15 +4387,15 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" style="98" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="98"/>
-    <col min="4" max="4" width="12.5" style="98" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="98"/>
-    <col min="6" max="6" width="8.5" style="98" customWidth="1"/>
-    <col min="7" max="16384" width="10.6640625" style="98"/>
+    <col min="2" max="2" width="5.7109375" style="98" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="98"/>
+    <col min="4" max="4" width="12.42578125" style="98" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="98"/>
+    <col min="6" max="6" width="8.42578125" style="98" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
